--- a/EYZWG9_0507/eyzwg9_11.xlsx
+++ b/EYZWG9_0507/eyzwg9_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0507\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD5AD71-6F2C-41A3-8192-3FD2A51D7789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B29707-0EF6-430B-9308-68BBEF644458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="3" xr2:uid="{6D981EF1-2E8E-48E0-BF9A-2360431FE827}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="24">
   <si>
     <t>Memóriakeret</t>
   </si>
@@ -98,12 +98,24 @@
   <si>
     <t>4. munkalap - LRU</t>
   </si>
+  <si>
+    <t>3+10</t>
+  </si>
+  <si>
+    <t>Laphibák száma:</t>
+  </si>
+  <si>
+    <t>Igénylet lap</t>
+  </si>
+  <si>
+    <t>Laphibák száma: 3+12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +191,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -330,11 +359,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -409,6 +473,123 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +959,7 @@
   <dimension ref="A4:U36"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC46DADA-174C-4AA3-96B5-840DFF07BDC3}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,9 +2225,407 @@
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M10" s="38"/>
     </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="65"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="32">
+        <v>4</v>
+      </c>
+      <c r="D12" s="32">
+        <v>3</v>
+      </c>
+      <c r="E12" s="37">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
+      <c r="G12" s="32">
+        <v>5</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="32">
+        <v>7</v>
+      </c>
+      <c r="J12" s="32">
+        <v>4</v>
+      </c>
+      <c r="K12" s="32">
+        <v>5</v>
+      </c>
+      <c r="L12" s="32">
+        <v>4</v>
+      </c>
+      <c r="M12" s="32">
+        <v>3</v>
+      </c>
+      <c r="N12" s="32">
+        <v>6</v>
+      </c>
+      <c r="O12" s="32">
+        <v>7</v>
+      </c>
+      <c r="P12" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>4</v>
+      </c>
+      <c r="R12" s="32">
+        <v>5</v>
+      </c>
+      <c r="S12" s="32">
+        <v>4</v>
+      </c>
+      <c r="T12" s="32">
+        <v>3</v>
+      </c>
+      <c r="U12" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="52">
+        <v>5</v>
+      </c>
+      <c r="C13" s="53">
+        <v>5</v>
+      </c>
+      <c r="D13" s="54">
+        <v>5</v>
+      </c>
+      <c r="E13" s="52">
+        <v>2</v>
+      </c>
+      <c r="F13" s="53">
+        <v>2</v>
+      </c>
+      <c r="G13" s="53">
+        <v>2</v>
+      </c>
+      <c r="H13" s="53">
+        <v>2</v>
+      </c>
+      <c r="I13" s="55">
+        <v>7</v>
+      </c>
+      <c r="J13" s="53">
+        <v>7</v>
+      </c>
+      <c r="K13" s="53">
+        <v>7</v>
+      </c>
+      <c r="L13" s="53">
+        <v>7</v>
+      </c>
+      <c r="M13" s="55">
+        <v>3</v>
+      </c>
+      <c r="N13" s="53">
+        <v>3</v>
+      </c>
+      <c r="O13" s="53">
+        <v>3</v>
+      </c>
+      <c r="P13" s="53">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="55">
+        <v>4</v>
+      </c>
+      <c r="R13" s="53">
+        <v>4</v>
+      </c>
+      <c r="S13" s="53">
+        <v>4</v>
+      </c>
+      <c r="T13" s="53">
+        <v>4</v>
+      </c>
+      <c r="U13" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="61">
+        <v>4</v>
+      </c>
+      <c r="D14" s="58">
+        <v>4</v>
+      </c>
+      <c r="E14" s="57">
+        <v>4</v>
+      </c>
+      <c r="F14" s="62">
+        <v>4</v>
+      </c>
+      <c r="G14" s="61">
+        <v>5</v>
+      </c>
+      <c r="H14" s="62">
+        <v>5</v>
+      </c>
+      <c r="I14" s="62">
+        <v>5</v>
+      </c>
+      <c r="J14" s="61">
+        <v>4</v>
+      </c>
+      <c r="K14" s="62">
+        <v>4</v>
+      </c>
+      <c r="L14" s="62">
+        <v>4</v>
+      </c>
+      <c r="M14" s="62">
+        <v>4</v>
+      </c>
+      <c r="N14" s="61">
+        <v>6</v>
+      </c>
+      <c r="O14" s="62">
+        <v>6</v>
+      </c>
+      <c r="P14" s="62">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="62">
+        <v>6</v>
+      </c>
+      <c r="R14" s="61">
+        <v>5</v>
+      </c>
+      <c r="S14" s="62">
+        <v>5</v>
+      </c>
+      <c r="T14" s="62">
+        <v>5</v>
+      </c>
+      <c r="U14" s="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="59">
+        <v>3</v>
+      </c>
+      <c r="E15" s="57">
+        <v>3</v>
+      </c>
+      <c r="F15" s="62">
+        <v>3</v>
+      </c>
+      <c r="G15" s="62">
+        <v>3</v>
+      </c>
+      <c r="H15" s="61">
+        <v>1</v>
+      </c>
+      <c r="I15" s="62">
+        <v>1</v>
+      </c>
+      <c r="J15" s="62">
+        <v>1</v>
+      </c>
+      <c r="K15" s="61">
+        <v>5</v>
+      </c>
+      <c r="L15" s="62">
+        <v>5</v>
+      </c>
+      <c r="M15" s="62">
+        <v>5</v>
+      </c>
+      <c r="N15" s="62">
+        <v>5</v>
+      </c>
+      <c r="O15" s="61">
+        <v>7</v>
+      </c>
+      <c r="P15" s="62">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="62">
+        <v>7</v>
+      </c>
+      <c r="R15" s="62">
+        <v>7</v>
+      </c>
+      <c r="S15" s="62">
+        <v>7</v>
+      </c>
+      <c r="T15" s="61">
+        <v>3</v>
+      </c>
+      <c r="U15" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="49">
+        <v>5</v>
+      </c>
+      <c r="C17" s="50">
+        <v>4</v>
+      </c>
+      <c r="D17" s="51">
+        <v>3</v>
+      </c>
+      <c r="E17" s="50">
+        <v>2</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50">
+        <v>5</v>
+      </c>
+      <c r="H17" s="50">
+        <v>1</v>
+      </c>
+      <c r="I17" s="50">
+        <v>7</v>
+      </c>
+      <c r="J17" s="50">
+        <v>4</v>
+      </c>
+      <c r="K17" s="50">
+        <v>5</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50">
+        <v>3</v>
+      </c>
+      <c r="N17" s="50">
+        <v>6</v>
+      </c>
+      <c r="O17" s="50">
+        <v>7</v>
+      </c>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50">
+        <v>4</v>
+      </c>
+      <c r="R17" s="50">
+        <v>5</v>
+      </c>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50">
+        <v>3</v>
+      </c>
+      <c r="U17" s="51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:U1"/>
+    <mergeCell ref="B11:U11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2054,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9AFA48-AB27-4459-9EF5-36F0E6DC4EBD}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,9 +3060,351 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="68"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="72">
+        <v>4</v>
+      </c>
+      <c r="D13" s="73">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="72">
+        <v>4</v>
+      </c>
+      <c r="G13" s="72">
+        <v>5</v>
+      </c>
+      <c r="H13" s="72">
+        <v>1</v>
+      </c>
+      <c r="I13" s="72">
+        <v>7</v>
+      </c>
+      <c r="J13" s="72">
+        <v>4</v>
+      </c>
+      <c r="K13" s="72">
+        <v>5</v>
+      </c>
+      <c r="L13" s="72">
+        <v>4</v>
+      </c>
+      <c r="M13" s="72">
+        <v>3</v>
+      </c>
+      <c r="N13" s="72">
+        <v>6</v>
+      </c>
+      <c r="O13" s="72">
+        <v>7</v>
+      </c>
+      <c r="P13" s="72">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="72">
+        <v>4</v>
+      </c>
+      <c r="R13" s="72">
+        <v>5</v>
+      </c>
+      <c r="S13" s="72">
+        <v>4</v>
+      </c>
+      <c r="T13" s="72">
+        <v>3</v>
+      </c>
+      <c r="U13" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="74">
+        <v>5</v>
+      </c>
+      <c r="C14" s="75">
+        <v>5</v>
+      </c>
+      <c r="D14" s="76">
+        <v>5</v>
+      </c>
+      <c r="E14" s="74">
+        <v>2</v>
+      </c>
+      <c r="F14" s="77">
+        <v>2</v>
+      </c>
+      <c r="G14" s="75">
+        <v>2</v>
+      </c>
+      <c r="H14" s="78">
+        <v>1</v>
+      </c>
+      <c r="I14" s="75">
+        <v>1</v>
+      </c>
+      <c r="J14" s="75">
+        <v>1</v>
+      </c>
+      <c r="K14" s="78">
+        <v>5</v>
+      </c>
+      <c r="L14" s="77">
+        <v>5</v>
+      </c>
+      <c r="M14" s="75">
+        <v>5</v>
+      </c>
+      <c r="N14" s="78">
+        <v>6</v>
+      </c>
+      <c r="O14" s="75">
+        <v>6</v>
+      </c>
+      <c r="P14" s="77">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="78">
+        <v>4</v>
+      </c>
+      <c r="R14" s="75">
+        <v>4</v>
+      </c>
+      <c r="S14" s="77">
+        <v>4</v>
+      </c>
+      <c r="T14" s="77">
+        <v>4</v>
+      </c>
+      <c r="U14" s="76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="79">
+        <v>4</v>
+      </c>
+      <c r="D15" s="80">
+        <v>4</v>
+      </c>
+      <c r="E15" s="29">
+        <v>4</v>
+      </c>
+      <c r="F15" s="81">
+        <v>4</v>
+      </c>
+      <c r="G15" s="48">
+        <v>4</v>
+      </c>
+      <c r="H15" s="48">
+        <v>4</v>
+      </c>
+      <c r="I15" s="79">
+        <v>7</v>
+      </c>
+      <c r="J15" s="48">
+        <v>7</v>
+      </c>
+      <c r="K15" s="48">
+        <v>7</v>
+      </c>
+      <c r="L15" s="81">
+        <v>7</v>
+      </c>
+      <c r="M15" s="79">
+        <v>3</v>
+      </c>
+      <c r="N15" s="48">
+        <v>3</v>
+      </c>
+      <c r="O15" s="48">
+        <v>3</v>
+      </c>
+      <c r="P15" s="81">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>3</v>
+      </c>
+      <c r="R15" s="48">
+        <v>3</v>
+      </c>
+      <c r="S15" s="81">
+        <v>3</v>
+      </c>
+      <c r="T15" s="81">
+        <v>3</v>
+      </c>
+      <c r="U15" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83">
+        <v>3</v>
+      </c>
+      <c r="E16" s="63">
+        <v>3</v>
+      </c>
+      <c r="F16" s="84">
+        <v>3</v>
+      </c>
+      <c r="G16" s="85">
+        <v>5</v>
+      </c>
+      <c r="H16" s="82">
+        <v>5</v>
+      </c>
+      <c r="I16" s="82">
+        <v>5</v>
+      </c>
+      <c r="J16" s="85">
+        <v>4</v>
+      </c>
+      <c r="K16" s="82">
+        <v>4</v>
+      </c>
+      <c r="L16" s="84">
+        <v>4</v>
+      </c>
+      <c r="M16" s="82">
+        <v>4</v>
+      </c>
+      <c r="N16" s="82">
+        <v>4</v>
+      </c>
+      <c r="O16" s="85">
+        <v>7</v>
+      </c>
+      <c r="P16" s="84">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="82">
+        <v>7</v>
+      </c>
+      <c r="R16" s="85">
+        <v>5</v>
+      </c>
+      <c r="S16" s="84">
+        <v>5</v>
+      </c>
+      <c r="T16" s="84">
+        <v>5</v>
+      </c>
+      <c r="U16" s="83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:U1"/>
+    <mergeCell ref="B12:U12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
